--- a/Base de datos/AT2020.xlsx
+++ b/Base de datos/AT2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\GitHub\DataMining_Accidentes_Transito_Canton_Loja\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCE130A-F469-4870-8004-E0DE2304303C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2DB37E-9926-46CE-8C9F-7273F0AD943A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7932" yWindow="1476" windowWidth="16632" windowHeight="10680" xr2:uid="{8A324D6C-DC91-431F-B8CD-DFA86C0DC8F2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A324D6C-DC91-431F-B8CD-DFA86C0DC8F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>

--- a/Base de datos/AT2020.xlsx
+++ b/Base de datos/AT2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\59399\Documents\GitHub\DataMining_Accidentes_Transito_Canton_Loja\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A2DB37E-9926-46CE-8C9F-7273F0AD943A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49FD10D8-CA03-4A5A-8D17-2196FB586755}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8A324D6C-DC91-431F-B8CD-DFA86C0DC8F2}"/>
   </bookViews>
@@ -3195,8 +3195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648DC17E-726E-41ED-843C-AE1C7E1FCA89}">
   <dimension ref="A1:N442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="A449" sqref="A449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
